--- a/biology/Neurosciences/Pénombre_ischémique/Pénombre_ischémique.xlsx
+++ b/biology/Neurosciences/Pénombre_ischémique/Pénombre_ischémique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>P%C3%A9nombre_isch%C3%A9mique</t>
+          <t>Pénombre_ischémique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pénombre ischémique est la partie du cerveau directement affectée au cours d'un accident vasculaire cérébral. L'alimentation sanguine y est perturbée au point qu'en l'absence d'intervention thérapeutique en temps utile, une bonne part de cette zone finira par se nécroser.
 Aucun outil donne satisfaction quand il s'agit d'estimer le volume de cette zone, donnée essentielle à la prise en charge clinique. La littérature évoque principalement deux procédés :
